--- a/example/test2.xlsx
+++ b/example/test2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MachineLearning\JSONGenerator\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\Projects\JSONGenerator\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FC609C-E35A-4D9F-985B-EABFD841F3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9C808F-5CAA-42B2-A62D-C9A73EE80FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36480" yWindow="-4125" windowWidth="28800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11883" yWindow="125" windowWidth="18745" windowHeight="12685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,11 +134,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>l["1AA",A2,"3A"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>l["1","2",3]</t>
+    <t>["1AA",A2,"3A"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["1",2,3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +537,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="8.88671875" style="1"/>
     <col min="4" max="5" width="8.88671875" style="2"/>
